--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\projects\http\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E267FF-72DE-4C40-831D-99E91EBDFEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC55B17-468D-4A09-B117-530C4FDD6F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23125" yWindow="-109" windowWidth="23451" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="276">
   <si>
     <t>darkbin</t>
   </si>
@@ -789,6 +789,144 @@
   </si>
   <si>
     <t>？，…？</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/u/huangxw/</t>
+  </si>
+  <si>
+    <t>Sea of stars</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/u/cui-ren-lei-xia-shi-qing-hua/</t>
+  </si>
+  <si>
+    <t>催人泪下是情话(7.3)</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/u/freeyourmind</t>
+  </si>
+  <si>
+    <t>六弦</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/u/carotwang</t>
+  </si>
+  <si>
+    <t>王悟空</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/u/user5434x</t>
+  </si>
+  <si>
+    <t>dls的十年老粉</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/u/kuan525/</t>
+  </si>
+  <si>
+    <t>kuan525</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/u/sweet-villanijaz/</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/u/lei-feng-lfss/</t>
+  </si>
+  <si>
+    <t>雷锋lfss</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/u/paren/</t>
+  </si>
+  <si>
+    <t>paren</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/u/gg_boy/</t>
+  </si>
+  <si>
+    <t>GG_boy</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/u/tou-ming-qiao/</t>
+  </si>
+  <si>
+    <t>桥</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/u/ephmeral/</t>
+  </si>
+  <si>
+    <t>时光少年依旧蓝</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/u/zzxn</t>
+  </si>
+  <si>
+    <t>晚年的猫</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/u/hiedwin</t>
+  </si>
+  <si>
+    <t>Aloha</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/u/si-wu-xie-melody</t>
+  </si>
+  <si>
+    <t>花生米</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/u/sanxiconze-2</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/u/ji-li-k/</t>
+  </si>
+  <si>
+    <t>蒺藜（7.3入群）</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/u/syrdy123/</t>
+  </si>
+  <si>
+    <t>流汗汤圆</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/u/assbackhome/</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/u/erlineryi</t>
+  </si>
+  <si>
+    <t>尔灵尔亿</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/u/zcmupyy/</t>
+  </si>
+  <si>
+    <t>董十二</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/u/eve-ua</t>
+  </si>
+  <si>
+    <t>Echo Andrew</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/u/cuber-lotus/</t>
+  </si>
+  <si>
+    <t>天赐领原</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/u/showmaple</t>
+  </si>
+  <si>
+    <t>Maple</t>
   </si>
 </sst>
 </file>
@@ -6326,8 +6464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -7599,124 +7737,268 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
+      <c r="A115" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B115" s="2">
+        <v>839164212</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
+      <c r="A116" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B116" s="2">
+        <v>1090608425</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
+      <c r="A117" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B117" s="2">
+        <v>57685086</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
+      <c r="A118" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B118" s="2">
+        <v>610040513</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
+      <c r="A119" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B119" s="2">
+        <v>296463757</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
+      <c r="A120" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B120" s="2">
+        <v>2166364824</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="5"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
+      <c r="A121" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B121" s="2">
+        <v>861320535</v>
+      </c>
+      <c r="C121" s="2">
+        <v>2333</v>
+      </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
+      <c r="A122" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B122" s="2">
+        <v>1055367558</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
+      <c r="A123" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B123" s="2">
+        <v>857793686</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
+      <c r="A124" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B124" s="2">
+        <v>630591905</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="5"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
+      <c r="A125" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B125" s="2">
+        <v>3568921382</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
+      <c r="A126" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B126" s="2">
+        <v>2669128599</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
+      <c r="A127" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B127" s="2">
+        <v>1909894639</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="5"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
+      <c r="A128" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B128" s="2">
+        <v>318802657</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="5"/>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
+      <c r="A129" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B129" s="2">
+        <v>183951694</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="5"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
+      <c r="A130" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B130" s="2">
+        <v>496695207</v>
+      </c>
+      <c r="C130" s="2">
+        <v>99</v>
+      </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
+      <c r="A131" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B131" s="2">
+        <v>2805920044</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="5"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
+      <c r="A132" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B132" s="2">
+        <v>2821700731</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="5"/>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
+      <c r="A133" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B133" s="2">
+        <v>1655385867</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="5"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
+      <c r="A134" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B134" s="2">
+        <v>2117610943</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="5"/>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
+      <c r="A135" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B135" s="2">
+        <v>752215339</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="5"/>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
+      <c r="A136" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B136" s="2">
+        <v>1793114503</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="5"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
+      <c r="A137" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B137" s="2">
+        <v>1539349804</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
+      <c r="A138" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B138" s="2">
+        <v>59865025</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="5"/>
